--- a/llava-trials.xlsx
+++ b/llava-trials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryana\OneDrive\Documents\Actual Documents\extracted_frames_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460AAF6B-B260-41BB-9B89-C6F65DD65ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32D50D8-5FFF-45DB-9D9F-77D3C9BE0AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{AD63279E-0698-49CC-BCD4-922352F5CF60}"/>
   </bookViews>
@@ -1358,15 +1358,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1393,14 +1385,10 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0B23B55E-9F11-4D0C-B41D-B78DF39C4D66}" name="Table1" displayName="Table1" ref="A1:M201" totalsRowShown="0">
-  <autoFilter ref="A1:M201" xr:uid="{0B23B55E-9F11-4D0C-B41D-B78DF39C4D66}">
-    <filterColumn colId="0">
-      <colorFilter dxfId="0"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:M201" xr:uid="{0B23B55E-9F11-4D0C-B41D-B78DF39C4D66}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{780E54EF-E4C8-472D-B38F-6EF20FD49788}" name="Trial" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{FD2CDD26-7F8C-42B7-A892-6E8BF10FD686}" name="Number of vehicles in accident" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{780E54EF-E4C8-472D-B38F-6EF20FD49788}" name="Trial" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{FD2CDD26-7F8C-42B7-A892-6E8BF10FD686}" name="Number of vehicles in accident" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{28840B24-D802-4E51-B3D8-A4AC3141C086}" name="Accident Type"/>
     <tableColumn id="4" xr3:uid="{35075EFF-1D87-49F5-93E9-59D271CDDC06}" name="Person Injury? "/>
     <tableColumn id="5" xr3:uid="{1F1E646D-6596-493A-B8FC-87B63480C50A}" name="Need for ambulance?"/>
@@ -1411,7 +1399,7 @@
     <tableColumn id="10" xr3:uid="{0FADADE6-DAC9-4A65-83C6-17E454613E96}" name="Weather"/>
     <tableColumn id="11" xr3:uid="{B735971A-27A7-4893-8554-C56AB220D259}" name="Low Res/Bad Footage?"/>
     <tableColumn id="12" xr3:uid="{24E21628-77B2-42DF-B7FD-48341EB9586F}" name="Other"/>
-    <tableColumn id="13" xr3:uid="{84B52FAF-C748-46A6-8894-E0B9B6C6D109}" name="Color" dataDxfId="1">
+    <tableColumn id="13" xr3:uid="{84B52FAF-C748-46A6-8894-E0B9B6C6D109}" name="Color" dataDxfId="0">
       <calculatedColumnFormula array="1">GetColor</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1738,8 +1726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F41316-F566-4B06-BB05-B7BBB865FBE7}">
   <dimension ref="A1:M213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C211" sqref="C211"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="N180" sqref="N180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1785,7 +1773,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1827,7 +1815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -1860,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1902,7 +1890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
@@ -1938,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1980,7 +1968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -2016,7 +2004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -2058,7 +2046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
@@ -2097,7 +2085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -2139,7 +2127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
@@ -2175,7 +2163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>6</v>
       </c>
@@ -2217,7 +2205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>40</v>
       </c>
@@ -2256,7 +2244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>7</v>
       </c>
@@ -2298,7 +2286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>43</v>
       </c>
@@ -2337,7 +2325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>8</v>
       </c>
@@ -2379,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>49</v>
       </c>
@@ -2418,7 +2406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>9</v>
       </c>
@@ -2460,7 +2448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>54</v>
       </c>
@@ -2496,7 +2484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>10</v>
       </c>
@@ -2535,7 +2523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>57</v>
       </c>
@@ -2571,7 +2559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>11</v>
       </c>
@@ -2649,7 +2637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>12</v>
       </c>
@@ -2691,7 +2679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>63</v>
       </c>
@@ -2727,7 +2715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>13</v>
       </c>
@@ -2808,7 +2796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>14</v>
       </c>
@@ -2850,7 +2838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>71</v>
       </c>
@@ -2886,7 +2874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>15</v>
       </c>
@@ -2928,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>74</v>
       </c>
@@ -2964,7 +2952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>16</v>
       </c>
@@ -3006,7 +2994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>77</v>
       </c>
@@ -3042,7 +3030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>17</v>
       </c>
@@ -3084,7 +3072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>82</v>
       </c>
@@ -3120,7 +3108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>18</v>
       </c>
@@ -3162,7 +3150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>85</v>
       </c>
@@ -3198,7 +3186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>19</v>
       </c>
@@ -3240,7 +3228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>87</v>
       </c>
@@ -3276,7 +3264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>20</v>
       </c>
@@ -3357,7 +3345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>21</v>
       </c>
@@ -3396,7 +3384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>92</v>
       </c>
@@ -3435,7 +3423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>22</v>
       </c>
@@ -3477,7 +3465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>94</v>
       </c>
@@ -3516,7 +3504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>23</v>
       </c>
@@ -3558,7 +3546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>98</v>
       </c>
@@ -3594,7 +3582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>24</v>
       </c>
@@ -3636,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>100</v>
       </c>
@@ -3672,7 +3660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>25</v>
       </c>
@@ -3714,7 +3702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>102</v>
       </c>
@@ -3750,7 +3738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>26</v>
       </c>
@@ -3828,7 +3816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>27</v>
       </c>
@@ -3870,7 +3858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>112</v>
       </c>
@@ -3906,7 +3894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>28</v>
       </c>
@@ -3948,7 +3936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>115</v>
       </c>
@@ -3987,7 +3975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>29</v>
       </c>
@@ -4029,7 +4017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>120</v>
       </c>
@@ -4065,7 +4053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>30</v>
       </c>
@@ -4107,7 +4095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>124</v>
       </c>
@@ -4143,7 +4131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>31</v>
       </c>
@@ -4196,7 +4184,7 @@
         <v>141</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>14</v>
@@ -4221,7 +4209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>32</v>
       </c>
@@ -4303,7 +4291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>33</v>
       </c>
@@ -4345,7 +4333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>137</v>
       </c>
@@ -4384,7 +4372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>34</v>
       </c>
@@ -4426,7 +4414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>140</v>
       </c>
@@ -4462,7 +4450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>35</v>
       </c>
@@ -4504,7 +4492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>144</v>
       </c>
@@ -4540,7 +4528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>36</v>
       </c>
@@ -4582,7 +4570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>147</v>
       </c>
@@ -4618,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>37</v>
       </c>
@@ -4660,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>150</v>
       </c>
@@ -4699,7 +4687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>38</v>
       </c>
@@ -4741,7 +4729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>155</v>
       </c>
@@ -4780,7 +4768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>39</v>
       </c>
@@ -4822,7 +4810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>158</v>
       </c>
@@ -4855,7 +4843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>40</v>
       </c>
@@ -4897,7 +4885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>161</v>
       </c>
@@ -4933,7 +4921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>41</v>
       </c>
@@ -4975,7 +4963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>164</v>
       </c>
@@ -5011,7 +4999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>42</v>
       </c>
@@ -5053,7 +5041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>168</v>
       </c>
@@ -5089,7 +5077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>43</v>
       </c>
@@ -5131,7 +5119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>171</v>
       </c>
@@ -5167,7 +5155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>44</v>
       </c>
@@ -5209,7 +5197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>175</v>
       </c>
@@ -5245,7 +5233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>45</v>
       </c>
@@ -5287,7 +5275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>179</v>
       </c>
@@ -5323,7 +5311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>46</v>
       </c>
@@ -5365,7 +5353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>183</v>
       </c>
@@ -5401,7 +5389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>47</v>
       </c>
@@ -5443,7 +5431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>185</v>
       </c>
@@ -5479,7 +5467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>48</v>
       </c>
@@ -5521,7 +5509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>188</v>
       </c>
@@ -5557,7 +5545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>49</v>
       </c>
@@ -5599,7 +5587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>191</v>
       </c>
@@ -5638,7 +5626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>50</v>
       </c>
@@ -5716,7 +5704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>51</v>
       </c>
@@ -5794,7 +5782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>52</v>
       </c>
@@ -5836,7 +5824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>203</v>
       </c>
@@ -5872,7 +5860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>53</v>
       </c>
@@ -5953,7 +5941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>54</v>
       </c>
@@ -5995,7 +5983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>210</v>
       </c>
@@ -6037,7 +6025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>55</v>
       </c>
@@ -6115,7 +6103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
         <v>56</v>
       </c>
@@ -6157,7 +6145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>215</v>
       </c>
@@ -6196,7 +6184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <v>57</v>
       </c>
@@ -6274,7 +6262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <v>58</v>
       </c>
@@ -6316,7 +6304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>221</v>
       </c>
@@ -6355,7 +6343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
         <v>59</v>
       </c>
@@ -6397,7 +6385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>222</v>
       </c>
@@ -6433,7 +6421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <v>60</v>
       </c>
@@ -6475,7 +6463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>224</v>
       </c>
@@ -6511,7 +6499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
         <v>61</v>
       </c>
@@ -6553,7 +6541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>227</v>
       </c>
@@ -6589,7 +6577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
         <v>62</v>
       </c>
@@ -6631,7 +6619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>230</v>
       </c>
@@ -6667,7 +6655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
         <v>63</v>
       </c>
@@ -6709,7 +6697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>233</v>
       </c>
@@ -6745,7 +6733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
         <v>64</v>
       </c>
@@ -6787,7 +6775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>237</v>
       </c>
@@ -6823,7 +6811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
         <v>65</v>
       </c>
@@ -6865,7 +6853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>242</v>
       </c>
@@ -6901,7 +6889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
         <v>66</v>
       </c>
@@ -6979,7 +6967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="5">
         <v>67</v>
       </c>
@@ -7021,7 +7009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>249</v>
       </c>
@@ -7063,7 +7051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
         <v>68</v>
       </c>
@@ -7105,7 +7093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>254</v>
       </c>
@@ -7141,7 +7129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
         <v>69</v>
       </c>
@@ -7183,7 +7171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>257</v>
       </c>
@@ -7225,7 +7213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
         <v>70</v>
       </c>
@@ -7267,7 +7255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>263</v>
       </c>
@@ -7309,7 +7297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="5">
         <v>71</v>
       </c>
@@ -7351,7 +7339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>268</v>
       </c>
@@ -7390,7 +7378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
         <v>72</v>
       </c>
@@ -7432,7 +7420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>271</v>
       </c>
@@ -7471,7 +7459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="5">
         <v>73</v>
       </c>
@@ -7513,7 +7501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>274</v>
       </c>
@@ -7549,7 +7537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="5">
         <v>74</v>
       </c>
@@ -7591,7 +7579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>278</v>
       </c>
@@ -7627,7 +7615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="5">
         <v>75</v>
       </c>
@@ -7705,7 +7693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="5">
         <v>76</v>
       </c>
@@ -7747,7 +7735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>282</v>
       </c>
@@ -7786,7 +7774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="5">
         <v>77</v>
       </c>
@@ -7828,7 +7816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>284</v>
       </c>
@@ -7864,7 +7852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="5">
         <v>78</v>
       </c>
@@ -7906,7 +7894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>286</v>
       </c>
@@ -7942,7 +7930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="5">
         <v>79</v>
       </c>
@@ -7984,7 +7972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>289</v>
       </c>
@@ -8020,7 +8008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="5">
         <v>80</v>
       </c>
@@ -8098,7 +8086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="5">
         <v>81</v>
       </c>
@@ -8176,7 +8164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="5">
         <v>82</v>
       </c>
@@ -8254,7 +8242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
         <v>83</v>
       </c>
@@ -8296,7 +8284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>299</v>
       </c>
@@ -8332,7 +8320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
         <v>84</v>
       </c>
@@ -8413,7 +8401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="5">
         <v>85</v>
       </c>
@@ -8494,7 +8482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="5">
         <v>86</v>
       </c>
@@ -8536,7 +8524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>309</v>
       </c>
@@ -8575,7 +8563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="5">
         <v>87</v>
       </c>
@@ -8617,7 +8605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>312</v>
       </c>
@@ -8656,7 +8644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="5">
         <v>88</v>
       </c>
@@ -8698,7 +8686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>314</v>
       </c>
@@ -8734,7 +8722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="5">
         <v>89</v>
       </c>
@@ -8812,7 +8800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="5">
         <v>90</v>
       </c>
@@ -8854,7 +8842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>319</v>
       </c>
@@ -8893,7 +8881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="5">
         <v>91</v>
       </c>
@@ -8974,7 +8962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="5">
         <v>92</v>
       </c>
@@ -9016,7 +9004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>325</v>
       </c>
@@ -9052,7 +9040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="5">
         <v>93</v>
       </c>
@@ -9130,7 +9118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="5">
         <v>94</v>
       </c>
@@ -9211,7 +9199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="5">
         <v>95</v>
       </c>
@@ -9253,7 +9241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>332</v>
       </c>
@@ -9289,7 +9277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="5">
         <v>96</v>
       </c>
@@ -9331,7 +9319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>334</v>
       </c>
@@ -9370,7 +9358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="5">
         <v>97</v>
       </c>
@@ -9454,7 +9442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
         <v>98</v>
       </c>
@@ -9496,7 +9484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>343</v>
       </c>
@@ -9532,7 +9520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" s="5">
         <v>99</v>
       </c>
@@ -9543,10 +9531,10 @@
         <v>204</v>
       </c>
       <c r="D198" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E198" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F198" t="s">
         <v>15</v>
@@ -9575,25 +9563,25 @@
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A199" s="6" t="s">
+      <c r="A199" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B199" s="6">
+      <c r="B199" s="3">
         <v>2</v>
       </c>
-      <c r="C199" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D199" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E199" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F199" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G199" s="7" t="s">
+      <c r="C199" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F199" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G199" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H199" t="s">
@@ -9610,7 +9598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" s="5">
         <v>100</v>
       </c>

--- a/llava-trials.xlsx
+++ b/llava-trials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryana\OneDrive\Documents\Actual Documents\extracted_frames_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32D50D8-5FFF-45DB-9D9F-77D3C9BE0AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2186637-CE14-477E-9119-D2EEED8C47B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{AD63279E-0698-49CC-BCD4-922352F5CF60}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AD63279E-0698-49CC-BCD4-922352F5CF60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1726,8 +1726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F41316-F566-4B06-BB05-B7BBB865FBE7}">
   <dimension ref="A1:M213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="N180" sqref="N180"/>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="G129" sqref="G129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6474,7 +6474,7 @@
         <v>141</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>14</v>
@@ -9609,10 +9609,10 @@
         <v>234</v>
       </c>
       <c r="D200" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E200" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F200" t="s">
         <v>15</v>
@@ -9641,25 +9641,25 @@
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A201" s="6" t="s">
+      <c r="A201" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B201" s="6">
+      <c r="B201" s="3">
         <v>2</v>
       </c>
-      <c r="C201" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D201" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E201" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F201" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G201" s="7" t="s">
+      <c r="C201" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F201" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G201" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H201" t="s">
@@ -9709,7 +9709,7 @@
         <v>354</v>
       </c>
       <c r="B209" s="10">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -9733,7 +9733,7 @@
         <v>357</v>
       </c>
       <c r="B212" s="10">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">

--- a/llava-trials.xlsx
+++ b/llava-trials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryana\OneDrive\Documents\Actual Documents\extracted_frames_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2186637-CE14-477E-9119-D2EEED8C47B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3531F3C8-970A-42FB-B27C-1C5DE038F538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AD63279E-0698-49CC-BCD4-922352F5CF60}"/>
+    <workbookView xWindow="14250" yWindow="0" windowWidth="14655" windowHeight="15585" xr2:uid="{AD63279E-0698-49CC-BCD4-922352F5CF60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1726,11 +1726,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F41316-F566-4B06-BB05-B7BBB865FBE7}">
   <dimension ref="A1:M213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G129" sqref="G129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" customWidth="1"/>
+    <col min="7" max="7" width="33.140625" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" customWidth="1"/>
+    <col min="9" max="9" width="7" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">

--- a/llava-trials.xlsx
+++ b/llava-trials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryana\OneDrive\Documents\Actual Documents\extracted_frames_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3531F3C8-970A-42FB-B27C-1C5DE038F538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A9FAF6-5421-43AC-B542-B6EE8C9F3C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14250" yWindow="0" windowWidth="14655" windowHeight="15585" xr2:uid="{AD63279E-0698-49CC-BCD4-922352F5CF60}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AD63279E-0698-49CC-BCD4-922352F5CF60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1122,18 +1122,6 @@
     <t>Items</t>
   </si>
   <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>Yellow</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -1237,6 +1225,18 @@
   </si>
   <si>
     <t>truck, cars</t>
+  </si>
+  <si>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t>AI Didn't See Accident</t>
+  </si>
+  <si>
+    <t>AI Denied the Request</t>
+  </si>
+  <si>
+    <t>Incorrect</t>
   </si>
 </sst>
 </file>
@@ -1383,6 +1383,1003 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>LLaVA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Initial Trials</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$209:$A$212</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Correct</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AI Didn't See Accident</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AI Denied the Request</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Incorrect</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$209:$B$212</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6C25-46C9-9767-1086EDFE0055}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D7B54FC-510F-A495-A9EE-064BE453D934}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0B23B55E-9F11-4D0C-B41D-B78DF39C4D66}" name="Table1" displayName="Table1" ref="A1:M201" totalsRowShown="0">
   <autoFilter ref="A1:M201" xr:uid="{0B23B55E-9F11-4D0C-B41D-B78DF39C4D66}"/>
@@ -1410,7 +2407,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Custom 1">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1424,16 +2421,16 @@
         <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="00B050"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="FFFF00"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FF0000"/>
       </a:accent4>
       <a:accent5>
         <a:srgbClr val="A02B93"/>
@@ -1442,7 +2439,7 @@
         <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="00B050"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="96607D"/>
@@ -1726,8 +2723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F41316-F566-4B06-BB05-B7BBB865FBE7}">
   <dimension ref="A1:M213"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G129" sqref="G129"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="A209" sqref="A209:A212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1921,7 +2918,7 @@
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
@@ -1999,7 +2996,7 @@
         <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I7" t="s">
         <v>15</v>
@@ -2317,7 +3314,7 @@
         <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I15" t="s">
         <v>15</v>
@@ -2554,7 +3551,7 @@
         <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="I21" t="s">
         <v>15</v>
@@ -2632,7 +3629,7 @@
         <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="I23" t="s">
         <v>15</v>
@@ -2869,7 +3866,7 @@
         <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="I29" t="s">
         <v>15</v>
@@ -2947,7 +3944,7 @@
         <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="I31" t="s">
         <v>15</v>
@@ -3181,7 +4178,7 @@
         <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I37" t="s">
         <v>15</v>
@@ -3337,7 +4334,7 @@
         <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I41" t="s">
         <v>15</v>
@@ -3496,7 +4493,7 @@
         <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I45" t="s">
         <v>15</v>
@@ -3577,7 +4574,7 @@
         <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I47" t="s">
         <v>15</v>
@@ -3889,7 +4886,7 @@
         <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="I55" t="s">
         <v>15</v>
@@ -4048,7 +5045,7 @@
         <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="I59" t="s">
         <v>15</v>
@@ -4204,7 +5201,7 @@
         <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="I63" t="s">
         <v>15</v>
@@ -4282,7 +5279,7 @@
         <v>14</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="I65" s="5" t="s">
         <v>15</v>
@@ -4364,7 +5361,7 @@
         <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="I67" t="s">
         <v>15</v>
@@ -4523,7 +5520,7 @@
         <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="I71" t="s">
         <v>15</v>
@@ -4679,7 +5676,7 @@
         <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="I75" t="s">
         <v>15</v>
@@ -4760,7 +5757,7 @@
         <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I77" t="s">
         <v>15</v>
@@ -4841,7 +5838,7 @@
         <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="I79" t="s">
         <v>15</v>
@@ -4916,7 +5913,7 @@
         <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="I81" t="s">
         <v>15</v>
@@ -5072,7 +6069,7 @@
         <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I85" t="s">
         <v>15</v>
@@ -5150,7 +6147,7 @@
         <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="I87" t="s">
         <v>15</v>
@@ -5306,7 +6303,7 @@
         <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="I91" t="s">
         <v>15</v>
@@ -5384,7 +6381,7 @@
         <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="I93" t="s">
         <v>15</v>
@@ -5462,7 +6459,7 @@
         <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I95" t="s">
         <v>15</v>
@@ -5540,7 +6537,7 @@
         <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="I97" t="s">
         <v>15</v>
@@ -5618,7 +6615,7 @@
         <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="I99" t="s">
         <v>15</v>
@@ -5699,7 +6696,7 @@
         <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="I101" t="s">
         <v>15</v>
@@ -5777,7 +6774,7 @@
         <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="I103" t="s">
         <v>15</v>
@@ -5855,7 +6852,7 @@
         <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="I105" t="s">
         <v>15</v>
@@ -5933,7 +6930,7 @@
         <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="I107" t="s">
         <v>15</v>
@@ -6014,7 +7011,7 @@
         <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="I109" t="s">
         <v>15</v>
@@ -6098,7 +7095,7 @@
         <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="I111" t="s">
         <v>15</v>
@@ -6176,7 +7173,7 @@
         <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="I113" t="s">
         <v>15</v>
@@ -6335,7 +7332,7 @@
         <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="I117" t="s">
         <v>15</v>
@@ -6494,7 +7491,7 @@
         <v>14</v>
       </c>
       <c r="H121" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I121" t="s">
         <v>15</v>
@@ -6572,7 +7569,7 @@
         <v>14</v>
       </c>
       <c r="H123" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I123" t="s">
         <v>15</v>
@@ -6728,7 +7725,7 @@
         <v>14</v>
       </c>
       <c r="H127" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="I127" t="s">
         <v>15</v>
@@ -6806,7 +7803,7 @@
         <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I129" t="s">
         <v>15</v>
@@ -6884,7 +7881,7 @@
         <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="I131" t="s">
         <v>15</v>
@@ -6962,7 +7959,7 @@
         <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I133" t="s">
         <v>14</v>
@@ -7040,13 +8037,13 @@
         <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I135" t="s">
         <v>15</v>
       </c>
       <c r="J135" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="K135" t="s">
         <v>15</v>
@@ -7124,7 +8121,7 @@
         <v>14</v>
       </c>
       <c r="H137" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="I137" t="s">
         <v>15</v>
@@ -7202,7 +8199,7 @@
         <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="I139" t="s">
         <v>15</v>
@@ -7286,7 +8283,7 @@
         <v>14</v>
       </c>
       <c r="H141" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="I141" t="s">
         <v>15</v>
@@ -7370,7 +8367,7 @@
         <v>14</v>
       </c>
       <c r="H143" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="I143" t="s">
         <v>15</v>
@@ -7532,7 +8529,7 @@
         <v>14</v>
       </c>
       <c r="H147" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="I147" t="s">
         <v>15</v>
@@ -7688,7 +8685,7 @@
         <v>14</v>
       </c>
       <c r="H151" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="I151" t="s">
         <v>15</v>
@@ -7766,7 +8763,7 @@
         <v>14</v>
       </c>
       <c r="H153" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="I153" t="s">
         <v>15</v>
@@ -7847,7 +8844,7 @@
         <v>14</v>
       </c>
       <c r="H155" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="I155" t="s">
         <v>15</v>
@@ -8003,7 +9000,7 @@
         <v>14</v>
       </c>
       <c r="H159" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="I159" t="s">
         <v>15</v>
@@ -8081,7 +9078,7 @@
         <v>14</v>
       </c>
       <c r="H161" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I161" t="s">
         <v>15</v>
@@ -8159,7 +9156,7 @@
         <v>14</v>
       </c>
       <c r="H163" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="I163" t="s">
         <v>15</v>
@@ -8315,7 +9312,7 @@
         <v>14</v>
       </c>
       <c r="H167" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I167" t="s">
         <v>15</v>
@@ -8393,7 +9390,7 @@
         <v>14</v>
       </c>
       <c r="H169" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="I169" t="s">
         <v>15</v>
@@ -8474,7 +9471,7 @@
         <v>14</v>
       </c>
       <c r="H171" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="I171" t="s">
         <v>15</v>
@@ -8717,7 +9714,7 @@
         <v>14</v>
       </c>
       <c r="H177" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="I177" t="s">
         <v>15</v>
@@ -8777,7 +9774,7 @@
         <v>316</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>141</v>
@@ -8795,7 +9792,7 @@
         <v>14</v>
       </c>
       <c r="H179" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="I179" t="s">
         <v>15</v>
@@ -8873,7 +9870,7 @@
         <v>14</v>
       </c>
       <c r="H181" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="I181" t="s">
         <v>15</v>
@@ -8954,7 +9951,7 @@
         <v>14</v>
       </c>
       <c r="H183" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="I183" t="s">
         <v>15</v>
@@ -9113,7 +10110,7 @@
         <v>14</v>
       </c>
       <c r="H187" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="I187" t="s">
         <v>14</v>
@@ -9191,7 +10188,7 @@
         <v>14</v>
       </c>
       <c r="H189" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="I189" t="s">
         <v>15</v>
@@ -9272,7 +10269,7 @@
         <v>14</v>
       </c>
       <c r="H191" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="I191" t="s">
         <v>15</v>
@@ -9413,7 +10410,7 @@
         <v>339</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>141</v>
@@ -9431,7 +10428,7 @@
         <v>14</v>
       </c>
       <c r="H195" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="I195" t="s">
         <v>15</v>
@@ -9593,7 +10590,7 @@
         <v>14</v>
       </c>
       <c r="H199" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I199" t="s">
         <v>15</v>
@@ -9671,7 +10668,7 @@
         <v>14</v>
       </c>
       <c r="H201" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I201" t="s">
         <v>15</v>
@@ -9714,7 +10711,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="B209" s="10">
         <v>76</v>
@@ -9722,7 +10719,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="B210" s="10">
         <v>0</v>
@@ -9730,7 +10727,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="B211" s="10">
         <v>0</v>
@@ -9738,7 +10735,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="B212" s="10">
         <v>24</v>
@@ -9746,7 +10743,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B213">
         <f>SUM(B209:B212)</f>
@@ -9755,8 +10752,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>